--- a/03. CMH120 OFCI Log REV2.0.xlsx
+++ b/03. CMH120 OFCI Log REV2.0.xlsx
@@ -2069,7 +2069,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" hidden="true" outlineLevel="1">
+    <row r="4" hidden="false" outlineLevel="1">
       <c r="A4" s="21"/>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -2088,7 +2088,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" hidden="true" outlineLevel="1">
+    <row r="5" hidden="false" outlineLevel="1">
       <c r="A5" t="s" s="23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="6" hidden="true" outlineLevel="2">
+    <row r="6" hidden="false" outlineLevel="2">
       <c r="A6" t="s" s="35">
         <v>21</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="7" hidden="true" outlineLevel="2">
+    <row r="7" hidden="false" outlineLevel="2">
       <c r="A7" t="s" s="35">
         <v>21</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="8" hidden="true" outlineLevel="2">
+    <row r="8" hidden="false" outlineLevel="2">
       <c r="A8" t="s" s="35">
         <v>21</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="9" hidden="true" outlineLevel="2">
+    <row r="9" hidden="false" outlineLevel="2">
       <c r="A9" t="s" s="35">
         <v>21</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" hidden="true" outlineLevel="2">
+    <row r="10" hidden="false" outlineLevel="2">
       <c r="A10" t="s" s="35">
         <v>21</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" hidden="true" outlineLevel="2">
+    <row r="11" hidden="false" outlineLevel="2">
       <c r="A11" t="s" s="35">
         <v>32</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="12" hidden="true" outlineLevel="2">
+    <row r="12" hidden="false" outlineLevel="2">
       <c r="A12" t="s" s="35">
         <v>34</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="13" hidden="true" outlineLevel="1">
+    <row r="13" hidden="false" outlineLevel="1">
       <c r="A13" t="s" s="23">
         <v>35</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="14" hidden="true" outlineLevel="2">
+    <row r="14" hidden="false" outlineLevel="2">
       <c r="A14" t="s" s="35">
         <v>36</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="15" hidden="true" outlineLevel="2">
+    <row r="15" hidden="false" outlineLevel="2">
       <c r="A15" t="s" s="35">
         <v>36</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="16" hidden="true" outlineLevel="2">
+    <row r="16" hidden="false" outlineLevel="2">
       <c r="A16" t="s" s="35">
         <v>40</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="17" hidden="true" outlineLevel="2">
+    <row r="17" hidden="false" outlineLevel="2">
       <c r="A17" t="s" s="35">
         <v>41</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="18" hidden="true" outlineLevel="1">
+    <row r="18" hidden="false" outlineLevel="1">
       <c r="A18" t="s" s="23">
         <v>42</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="19" hidden="true" outlineLevel="2">
+    <row r="19" hidden="false" outlineLevel="2">
       <c r="A19" t="s" s="35">
         <v>43</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="20" hidden="true" outlineLevel="2">
+    <row r="20" hidden="false" outlineLevel="2">
       <c r="A20" t="s" s="35">
         <v>43</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="21" hidden="true" outlineLevel="2">
+    <row r="21" hidden="false" outlineLevel="2">
       <c r="A21" t="s" s="35">
         <v>47</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="22" hidden="true" outlineLevel="2">
+    <row r="22" hidden="false" outlineLevel="2">
       <c r="A22" t="s" s="35">
         <v>48</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="23" hidden="true" outlineLevel="1">
+    <row r="23" hidden="false" outlineLevel="1">
       <c r="A23" t="s" s="23">
         <v>49</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="24" hidden="true" outlineLevel="2">
+    <row r="24" hidden="false" outlineLevel="2">
       <c r="A24" t="s" s="35">
         <v>50</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="25" hidden="true" outlineLevel="2">
+    <row r="25" hidden="false" outlineLevel="2">
       <c r="A25" t="s" s="35">
         <v>50</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="26" hidden="true" outlineLevel="2">
+    <row r="26" hidden="false" outlineLevel="2">
       <c r="A26" t="s" s="35">
         <v>54</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="27" hidden="true" outlineLevel="2">
+    <row r="27" hidden="false" outlineLevel="2">
       <c r="A27" t="s" s="35">
         <v>55</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="28" hidden="true" outlineLevel="1">
+    <row r="28" hidden="false" outlineLevel="1">
       <c r="A28" t="s" s="23">
         <v>56</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="29" hidden="true" outlineLevel="2">
+    <row r="29" hidden="false" outlineLevel="2">
       <c r="A29" t="s" s="35">
         <v>57</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="30" hidden="true" outlineLevel="2">
+    <row r="30" hidden="false" outlineLevel="2">
       <c r="A30" t="s" s="35">
         <v>57</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="31" hidden="true" outlineLevel="2">
+    <row r="31" hidden="false" outlineLevel="2">
       <c r="A31" t="s" s="35">
         <v>61</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="32" hidden="true" outlineLevel="2">
+    <row r="32" hidden="false" outlineLevel="2">
       <c r="A32" t="s" s="35">
         <v>62</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="33" hidden="true" outlineLevel="1">
+    <row r="33" hidden="false" outlineLevel="1">
       <c r="A33" t="s" s="23">
         <v>63</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="34" hidden="true" outlineLevel="2">
+    <row r="34" hidden="false" outlineLevel="2">
       <c r="A34" t="s" s="35">
         <v>64</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="35" hidden="true" outlineLevel="2">
+    <row r="35" hidden="false" outlineLevel="2">
       <c r="A35" t="s" s="35">
         <v>64</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="36" hidden="true" outlineLevel="2">
+    <row r="36" hidden="false" outlineLevel="2">
       <c r="A36" t="s" s="35">
         <v>68</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="37" hidden="true" outlineLevel="2">
+    <row r="37" hidden="false" outlineLevel="2">
       <c r="A37" t="s" s="35">
         <v>69</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="38" hidden="true" outlineLevel="1">
+    <row r="38" hidden="false" outlineLevel="1">
       <c r="A38" t="s" s="23">
         <v>70</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="39" hidden="true" outlineLevel="2">
+    <row r="39" hidden="false" outlineLevel="2">
       <c r="A39" t="s" s="35">
         <v>71</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="40" hidden="true" outlineLevel="2">
+    <row r="40" hidden="false" outlineLevel="2">
       <c r="A40" t="s" s="35">
         <v>71</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="41" hidden="true" outlineLevel="2">
+    <row r="41" hidden="false" outlineLevel="2">
       <c r="A41" t="s" s="35">
         <v>71</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="42" hidden="true" outlineLevel="2">
+    <row r="42" hidden="false" outlineLevel="2">
       <c r="A42" t="s" s="35">
         <v>75</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="43" hidden="true" outlineLevel="2">
+    <row r="43" hidden="false" outlineLevel="2">
       <c r="A43" t="s" s="35">
         <v>76</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="44" hidden="true" outlineLevel="1">
+    <row r="44" hidden="false" outlineLevel="1">
       <c r="A44" t="s" s="23">
         <v>77</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="45" hidden="true" outlineLevel="2">
+    <row r="45" hidden="false" outlineLevel="2">
       <c r="A45" t="s" s="35">
         <v>78</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="46" hidden="true" outlineLevel="2">
+    <row r="46" hidden="false" outlineLevel="2">
       <c r="A46" t="s" s="35">
         <v>78</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="47" hidden="true" outlineLevel="2">
+    <row r="47" hidden="false" outlineLevel="2">
       <c r="A47" t="s" s="35">
         <v>82</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="48" hidden="true" outlineLevel="2">
+    <row r="48" hidden="false" outlineLevel="2">
       <c r="A48" t="s" s="35">
         <v>83</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="49" hidden="true" outlineLevel="1">
+    <row r="49" hidden="false" outlineLevel="1">
       <c r="A49" t="s" s="23">
         <v>84</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="50" hidden="true" outlineLevel="2">
+    <row r="50" hidden="false" outlineLevel="2">
       <c r="A50" t="s" s="35">
         <v>85</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="51" hidden="true" outlineLevel="2">
+    <row r="51" hidden="false" outlineLevel="2">
       <c r="A51" t="s" s="35">
         <v>85</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="52" hidden="true" outlineLevel="2">
+    <row r="52" hidden="false" outlineLevel="2">
       <c r="A52" t="s" s="35">
         <v>87</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="53" hidden="true" outlineLevel="2">
+    <row r="53" hidden="false" outlineLevel="2">
       <c r="A53" t="s" s="35">
         <v>88</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="54" hidden="true" outlineLevel="1">
+    <row r="54" hidden="false" outlineLevel="1">
       <c r="A54" t="s" s="23">
         <v>89</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="55" hidden="true" outlineLevel="2">
+    <row r="55" hidden="false" outlineLevel="2">
       <c r="A55" t="s" s="35">
         <v>90</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="56" hidden="true" outlineLevel="2">
+    <row r="56" hidden="false" outlineLevel="2">
       <c r="A56" t="s" s="35">
         <v>90</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="57" hidden="true" outlineLevel="2">
+    <row r="57" hidden="false" outlineLevel="2">
       <c r="A57" t="s" s="35">
         <v>94</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="58" hidden="true" outlineLevel="2">
+    <row r="58" hidden="false" outlineLevel="2">
       <c r="A58" t="s" s="35">
         <v>95</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="59" hidden="true" outlineLevel="1">
+    <row r="59" hidden="false" outlineLevel="1">
       <c r="A59" t="s" s="23">
         <v>96</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="60" hidden="true" outlineLevel="2">
+    <row r="60" hidden="false" outlineLevel="2">
       <c r="A60" t="s" s="35">
         <v>97</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="61" hidden="true" outlineLevel="2">
+    <row r="61" hidden="false" outlineLevel="2">
       <c r="A61" t="s" s="35">
         <v>97</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="62" hidden="true" outlineLevel="2">
+    <row r="62" hidden="false" outlineLevel="2">
       <c r="A62" t="s" s="35">
         <v>101</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="63" hidden="true" outlineLevel="2">
+    <row r="63" hidden="false" outlineLevel="2">
       <c r="A63" t="s" s="35">
         <v>102</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="64" hidden="true" outlineLevel="1">
+    <row r="64" hidden="false" outlineLevel="1">
       <c r="A64" t="s" s="23">
         <v>103</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="65" hidden="true" outlineLevel="2">
+    <row r="65" hidden="false" outlineLevel="2">
       <c r="A65" t="s" s="35">
         <v>104</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="66" hidden="true" outlineLevel="2">
+    <row r="66" hidden="false" outlineLevel="2">
       <c r="A66" t="s" s="35">
         <v>104</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="67" hidden="true" outlineLevel="2">
+    <row r="67" hidden="false" outlineLevel="2">
       <c r="A67" t="s" s="35">
         <v>108</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="68" hidden="true" outlineLevel="2">
+    <row r="68" hidden="false" outlineLevel="2">
       <c r="A68" t="s" s="35">
         <v>109</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" hidden="true" outlineLevel="1">
+    <row r="72" hidden="false" outlineLevel="1">
       <c r="A72" t="s" s="45">
         <v>111</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="73" hidden="true" outlineLevel="1">
+    <row r="73" hidden="false" outlineLevel="1">
       <c r="A73" t="s" s="23">
         <v>111</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" hidden="false" outlineLevel="1">
+    <row r="76" hidden="true" outlineLevel="1">
       <c r="A76" s="21"/>
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
@@ -4928,7 +4928,7 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
     </row>
-    <row r="77" hidden="false" outlineLevel="1">
+    <row r="77" hidden="true" outlineLevel="1">
       <c r="A77" t="s" s="23">
         <v>19</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="78" hidden="false" outlineLevel="2">
+    <row r="78" hidden="true" outlineLevel="2">
       <c r="A78" t="s" s="35">
         <v>118</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="79" hidden="false" outlineLevel="2">
+    <row r="79" hidden="true" outlineLevel="2">
       <c r="A79" t="s" s="35">
         <v>118</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="80" hidden="false" outlineLevel="2">
+    <row r="80" hidden="true" outlineLevel="2">
       <c r="A80" t="s" s="35">
         <v>118</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="81" hidden="false" outlineLevel="2">
+    <row r="81" hidden="true" outlineLevel="2">
       <c r="A81" t="s" s="35">
         <v>118</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="82" hidden="false" outlineLevel="2">
+    <row r="82" hidden="true" outlineLevel="2">
       <c r="A82" t="s" s="35">
         <v>118</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="83" hidden="false" outlineLevel="2">
+    <row r="83" hidden="true" outlineLevel="2">
       <c r="A83" t="s" s="35">
         <v>118</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="84" hidden="false" outlineLevel="1">
+    <row r="84" hidden="true" outlineLevel="1">
       <c r="A84" t="s" s="23">
         <v>35</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="85" hidden="false" outlineLevel="2">
+    <row r="85" hidden="true" outlineLevel="2">
       <c r="A85" t="s" s="35">
         <v>128</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="86" hidden="false" outlineLevel="2">
+    <row r="86" hidden="true" outlineLevel="2">
       <c r="A86" t="s" s="35">
         <v>128</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="87" hidden="false" outlineLevel="1">
+    <row r="87" hidden="true" outlineLevel="1">
       <c r="A87" t="s" s="23">
         <v>42</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="88" hidden="false" outlineLevel="2">
+    <row r="88" hidden="true" outlineLevel="2">
       <c r="A88" t="s" s="35">
         <v>131</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="89" hidden="false" outlineLevel="2">
+    <row r="89" hidden="true" outlineLevel="2">
       <c r="A89" t="s" s="35">
         <v>131</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="90" hidden="false" outlineLevel="1">
+    <row r="90" hidden="true" outlineLevel="1">
       <c r="A90" t="s" s="23">
         <v>49</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="91" hidden="false" outlineLevel="2">
+    <row r="91" hidden="true" outlineLevel="2">
       <c r="A91" t="s" s="35">
         <v>134</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="92" hidden="false" outlineLevel="2">
+    <row r="92" hidden="true" outlineLevel="2">
       <c r="A92" t="s" s="35">
         <v>134</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="93" hidden="false" outlineLevel="1">
+    <row r="93" hidden="true" outlineLevel="1">
       <c r="A93" t="s" s="23">
         <v>56</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="94" hidden="false" outlineLevel="2">
+    <row r="94" hidden="true" outlineLevel="2">
       <c r="A94" t="s" s="35">
         <v>137</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="95" hidden="false" outlineLevel="2">
+    <row r="95" hidden="true" outlineLevel="2">
       <c r="A95" t="s" s="35">
         <v>137</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="96" hidden="false" outlineLevel="1">
+    <row r="96" hidden="true" outlineLevel="1">
       <c r="A96" t="s" s="23">
         <v>63</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="97" hidden="false" outlineLevel="2">
+    <row r="97" hidden="true" outlineLevel="2">
       <c r="A97" t="s" s="35">
         <v>140</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="98" hidden="false" outlineLevel="2">
+    <row r="98" hidden="true" outlineLevel="2">
       <c r="A98" t="s" s="35">
         <v>140</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="99" hidden="false" outlineLevel="1">
+    <row r="99" hidden="true" outlineLevel="1">
       <c r="A99" t="s" s="23">
         <v>70</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="100" hidden="false" outlineLevel="2">
+    <row r="100" hidden="true" outlineLevel="2">
       <c r="A100" t="s" s="35">
         <v>143</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="101" hidden="false" outlineLevel="2">
+    <row r="101" hidden="true" outlineLevel="2">
       <c r="A101" t="s" s="35">
         <v>143</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="102" hidden="false" outlineLevel="1">
+    <row r="102" hidden="true" outlineLevel="1">
       <c r="A102" t="s" s="23">
         <v>77</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="103" hidden="false" outlineLevel="2">
+    <row r="103" hidden="true" outlineLevel="2">
       <c r="A103" t="s" s="35">
         <v>146</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="104" hidden="false" outlineLevel="2">
+    <row r="104" hidden="true" outlineLevel="2">
       <c r="A104" t="s" s="35">
         <v>146</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="105" hidden="false" outlineLevel="1">
+    <row r="105" hidden="true" outlineLevel="1">
       <c r="A105" t="s" s="23">
         <v>84</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="106" hidden="false" outlineLevel="2">
+    <row r="106" hidden="true" outlineLevel="2">
       <c r="A106" t="s" s="35">
         <v>149</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="107" hidden="false" outlineLevel="2">
+    <row r="107" hidden="true" outlineLevel="2">
       <c r="A107" t="s" s="35">
         <v>149</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="108" hidden="false" outlineLevel="1">
+    <row r="108" hidden="true" outlineLevel="1">
       <c r="A108" t="s" s="23">
         <v>152</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="109" hidden="false" outlineLevel="2">
+    <row r="109" hidden="true" outlineLevel="2">
       <c r="A109" t="s" s="35">
         <v>153</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="110" hidden="false" outlineLevel="2">
+    <row r="110" hidden="true" outlineLevel="2">
       <c r="A110" t="s" s="35">
         <v>153</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="111" hidden="false" outlineLevel="1">
+    <row r="111" hidden="true" outlineLevel="1">
       <c r="A111" t="s" s="23">
         <v>96</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="112" hidden="false" outlineLevel="2">
+    <row r="112" hidden="true" outlineLevel="2">
       <c r="A112" t="s" s="35">
         <v>156</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="113" hidden="false" outlineLevel="2">
+    <row r="113" hidden="true" outlineLevel="2">
       <c r="A113" t="s" s="35">
         <v>156</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="114" hidden="false" outlineLevel="1">
+    <row r="114" hidden="true" outlineLevel="1">
       <c r="A114" t="s" s="23">
         <v>103</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="115" hidden="false" outlineLevel="2">
+    <row r="115" hidden="true" outlineLevel="2">
       <c r="A115" t="s" s="35">
         <v>159</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="116" hidden="false" outlineLevel="2">
+    <row r="116" hidden="true" outlineLevel="2">
       <c r="A116" t="s" s="35">
         <v>159</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="P118" s="15"/>
       <c r="Q118" s="15"/>
     </row>
-    <row r="119" hidden="true" outlineLevel="1">
+    <row r="119" hidden="false" outlineLevel="1">
       <c r="A119" s="21"/>
       <c r="B119" s="5"/>
       <c r="C119" s="7"/>
@@ -6515,7 +6515,7 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" hidden="true" outlineLevel="1">
+    <row r="120" hidden="false" outlineLevel="1">
       <c r="A120" t="s" s="45">
         <v>19</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="121" hidden="true" outlineLevel="1">
+    <row r="121" hidden="false" outlineLevel="1">
       <c r="A121" t="s" s="23">
         <v>35</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="122" hidden="true" outlineLevel="1">
+    <row r="122" hidden="false" outlineLevel="1">
       <c r="A122" t="s" s="45">
         <v>42</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="123" hidden="true" outlineLevel="1">
+    <row r="123" hidden="false" outlineLevel="1">
       <c r="A123" t="s" s="23">
         <v>49</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="124" hidden="true" outlineLevel="1">
+    <row r="124" hidden="false" outlineLevel="1">
       <c r="A124" t="s" s="45">
         <v>56</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="125" hidden="true" outlineLevel="1">
+    <row r="125" hidden="false" outlineLevel="1">
       <c r="A125" t="s" s="23">
         <v>63</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="126" hidden="true" outlineLevel="1">
+    <row r="126" hidden="false" outlineLevel="1">
       <c r="A126" t="s" s="45">
         <v>70</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="127" hidden="true" outlineLevel="1">
+    <row r="127" hidden="false" outlineLevel="1">
       <c r="A127" t="s" s="23">
         <v>77</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="128" hidden="true" outlineLevel="1">
+    <row r="128" hidden="false" outlineLevel="1">
       <c r="A128" t="s" s="45">
         <v>84</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="129" hidden="true" outlineLevel="1">
+    <row r="129" hidden="false" outlineLevel="1">
       <c r="A129" t="s" s="23">
         <v>89</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="130" hidden="true" outlineLevel="1">
+    <row r="130" hidden="false" outlineLevel="1">
       <c r="A130" t="s" s="45">
         <v>96</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="131" hidden="true" outlineLevel="1">
+    <row r="131" hidden="false" outlineLevel="1">
       <c r="A131" t="s" s="23">
         <v>103</v>
       </c>
@@ -8273,7 +8273,7 @@
       <c r="P163" s="15"/>
       <c r="Q163" s="15"/>
     </row>
-    <row r="164" hidden="true" outlineLevel="1">
+    <row r="164" hidden="false" outlineLevel="1">
       <c r="A164" s="21"/>
       <c r="B164" s="5"/>
       <c r="C164" s="7"/>
@@ -8294,7 +8294,7 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
     </row>
-    <row r="165" hidden="true" outlineLevel="1">
+    <row r="165" hidden="false" outlineLevel="1">
       <c r="A165" t="s" s="21">
         <v>201</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="166" hidden="true" outlineLevel="1">
+    <row r="166" hidden="false" outlineLevel="1">
       <c r="A166" t="s" s="23">
         <v>205</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="167" hidden="true" outlineLevel="1">
+    <row r="167" hidden="false" outlineLevel="1">
       <c r="A167" t="s" s="21">
         <v>206</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="168" hidden="true" outlineLevel="1">
+    <row r="168" hidden="false" outlineLevel="1">
       <c r="A168" t="s" s="23">
         <v>207</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="169" hidden="true" outlineLevel="1">
+    <row r="169" hidden="false" outlineLevel="1">
       <c r="A169" t="s" s="21">
         <v>208</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="170" hidden="true" outlineLevel="1">
+    <row r="170" hidden="false" outlineLevel="1">
       <c r="A170" t="s" s="23">
         <v>209</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="171" hidden="true" outlineLevel="1">
+    <row r="171" hidden="false" outlineLevel="1">
       <c r="A171" t="s" s="21">
         <v>210</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="172" hidden="true" outlineLevel="1">
+    <row r="172" hidden="false" outlineLevel="1">
       <c r="A172" t="s" s="23">
         <v>211</v>
       </c>
@@ -8631,8 +8631,8 @@
       <c r="G172" t="n" s="39">
         <v>46192.0</v>
       </c>
-      <c r="H172" t="n" s="39">
-        <v>46192.0</v>
+      <c r="H172" t="n" s="31">
+        <v>46189.0</v>
       </c>
       <c r="I172" t="n" s="31">
         <v>46314.0</v>
@@ -8641,7 +8641,7 @@
         <v>46225.0</v>
       </c>
       <c r="K172" t="n" s="27">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="L172" s="27"/>
       <c r="M172" s="27"/>
@@ -8654,7 +8654,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="173" hidden="true" outlineLevel="1">
+    <row r="173" hidden="false" outlineLevel="1">
       <c r="A173" t="s" s="21">
         <v>212</v>
       </c>
@@ -8676,8 +8676,8 @@
       <c r="G173" t="n" s="39">
         <v>46206.0</v>
       </c>
-      <c r="H173" t="n" s="39">
-        <v>46206.0</v>
+      <c r="H173" t="n" s="49">
+        <v>46209.0</v>
       </c>
       <c r="I173" t="n" s="41">
         <v>46342.0</v>
@@ -8686,7 +8686,7 @@
         <v>46253.0</v>
       </c>
       <c r="K173" t="n" s="7">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -8699,7 +8699,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="174" hidden="true" outlineLevel="1">
+    <row r="174" hidden="false" outlineLevel="1">
       <c r="A174" t="s" s="23">
         <v>213</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="175" hidden="true" outlineLevel="1">
+    <row r="175" hidden="false" outlineLevel="1">
       <c r="A175" t="s" s="21">
         <v>214</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="176" hidden="true" outlineLevel="1">
+    <row r="176" hidden="false" outlineLevel="1">
       <c r="A176" t="s" s="23">
         <v>215</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="P193" s="15"/>
       <c r="Q193" s="15"/>
     </row>
-    <row r="194" hidden="false" outlineLevel="1">
+    <row r="194" hidden="true" outlineLevel="1">
       <c r="A194" s="21"/>
       <c r="B194" s="5"/>
       <c r="C194" s="7"/>
@@ -9494,7 +9494,7 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
     </row>
-    <row r="195" hidden="false" outlineLevel="1">
+    <row r="195" hidden="true" outlineLevel="1">
       <c r="A195" t="s" s="21">
         <v>234</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="196" hidden="false" outlineLevel="1">
+    <row r="196" hidden="true" outlineLevel="1">
       <c r="A196" t="s" s="23">
         <v>238</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="197" hidden="false" outlineLevel="1">
+    <row r="197" hidden="true" outlineLevel="1">
       <c r="A197" t="s" s="21">
         <v>239</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="198" hidden="false" outlineLevel="1">
+    <row r="198" hidden="true" outlineLevel="1">
       <c r="A198" t="s" s="23">
         <v>240</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="199" hidden="false" outlineLevel="1">
+    <row r="199" hidden="true" outlineLevel="1">
       <c r="A199" t="s" s="21">
         <v>241</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="200" hidden="false" outlineLevel="1">
+    <row r="200" hidden="true" outlineLevel="1">
       <c r="A200" t="s" s="23">
         <v>242</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="201" hidden="false" outlineLevel="1">
+    <row r="201" hidden="true" outlineLevel="1">
       <c r="A201" t="s" s="21">
         <v>243</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="202" hidden="false" outlineLevel="1">
+    <row r="202" hidden="true" outlineLevel="1">
       <c r="A202" t="s" s="23">
         <v>244</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="203" hidden="false" outlineLevel="1">
+    <row r="203" hidden="true" outlineLevel="1">
       <c r="A203" t="s" s="21">
         <v>245</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="204" hidden="false" outlineLevel="1">
+    <row r="204" hidden="true" outlineLevel="1">
       <c r="A204" t="s" s="23">
         <v>246</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="205" hidden="false" outlineLevel="1">
+    <row r="205" hidden="true" outlineLevel="1">
       <c r="A205" t="s" s="21">
         <v>247</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="206" hidden="false" outlineLevel="1">
+    <row r="206" hidden="true" outlineLevel="1">
       <c r="A206" t="s" s="23">
         <v>248</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="207" hidden="false" outlineLevel="1">
+    <row r="207" hidden="true" outlineLevel="1">
       <c r="A207" s="21"/>
       <c r="B207" s="5"/>
       <c r="C207" s="7"/>
@@ -10092,7 +10092,7 @@
       <c r="P210" s="81"/>
       <c r="Q210" s="81"/>
     </row>
-    <row r="211" hidden="true" outlineLevel="1">
+    <row r="211" hidden="false" outlineLevel="1">
       <c r="A211" s="21"/>
       <c r="B211" s="5"/>
       <c r="C211" s="7"/>
@@ -10111,7 +10111,7 @@
       <c r="P211" s="5"/>
       <c r="Q211" s="5"/>
     </row>
-    <row r="212" hidden="true" outlineLevel="1">
+    <row r="212" hidden="false" outlineLevel="1">
       <c r="A212" t="s" s="21">
         <v>251</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="213" hidden="true" outlineLevel="1">
+    <row r="213" hidden="false" outlineLevel="1">
       <c r="A213" t="s" s="23">
         <v>255</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="214" hidden="true" outlineLevel="1">
+    <row r="214" hidden="false" outlineLevel="1">
       <c r="A214" t="s" s="21">
         <v>258</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="215" hidden="true" outlineLevel="1">
+    <row r="215" hidden="false" outlineLevel="1">
       <c r="A215" t="s" s="23">
         <v>259</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="216" hidden="true" outlineLevel="1">
+    <row r="216" hidden="false" outlineLevel="1">
       <c r="A216" t="s" s="21">
         <v>261</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="217" hidden="true" outlineLevel="1">
+    <row r="217" hidden="false" outlineLevel="1">
       <c r="A217" t="s" s="23">
         <v>263</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="218" hidden="true" outlineLevel="1">
+    <row r="218" hidden="false" outlineLevel="1">
       <c r="A218" t="s" s="21">
         <v>265</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="219" hidden="true" outlineLevel="1">
+    <row r="219" hidden="false" outlineLevel="1">
       <c r="A219" t="s" s="23">
         <v>267</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="220" hidden="true" outlineLevel="1">
+    <row r="220" hidden="false" outlineLevel="1">
       <c r="A220" t="s" s="21">
         <v>269</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="221" hidden="true" outlineLevel="1">
+    <row r="221" hidden="false" outlineLevel="1">
       <c r="A221" t="s" s="23">
         <v>271</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="222" hidden="true" outlineLevel="1">
+    <row r="222" hidden="false" outlineLevel="1">
       <c r="A222" t="s" s="21">
         <v>273</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="223" hidden="true" outlineLevel="1">
+    <row r="223" hidden="false" outlineLevel="1">
       <c r="A223" t="s" s="23">
         <v>275</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="P225" s="81"/>
       <c r="Q225" s="81"/>
     </row>
-    <row r="226" hidden="true" outlineLevel="1">
+    <row r="226" hidden="false" outlineLevel="1">
       <c r="A226" s="21"/>
       <c r="B226" s="5"/>
       <c r="C226" s="7"/>
@@ -10686,7 +10686,7 @@
       <c r="P226" s="5"/>
       <c r="Q226" s="5"/>
     </row>
-    <row r="227" hidden="true" outlineLevel="1">
+    <row r="227" hidden="false" outlineLevel="1">
       <c r="A227" t="s" s="23">
         <v>19</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="228" hidden="true" outlineLevel="2">
+    <row r="228" hidden="false" outlineLevel="2">
       <c r="A228" t="s" s="35">
         <v>278</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="229" hidden="true" outlineLevel="2">
+    <row r="229" hidden="false" outlineLevel="2">
       <c r="A229" t="s" s="35">
         <v>278</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="230" hidden="true" outlineLevel="2">
+    <row r="230" hidden="false" outlineLevel="2">
       <c r="A230" t="s" s="35">
         <v>278</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="231" hidden="true" outlineLevel="2">
+    <row r="231" hidden="false" outlineLevel="2">
       <c r="A231" t="s" s="35">
         <v>278</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="232" hidden="true" outlineLevel="2">
+    <row r="232" hidden="false" outlineLevel="2">
       <c r="A232" t="s" s="35">
         <v>278</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="233" hidden="true" outlineLevel="1">
+    <row r="233" hidden="false" outlineLevel="1">
       <c r="A233" t="s" s="23">
         <v>35</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="234" hidden="true" outlineLevel="2">
+    <row r="234" hidden="false" outlineLevel="2">
       <c r="A234" t="s" s="35">
         <v>286</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="235" hidden="true" outlineLevel="2">
+    <row r="235" hidden="false" outlineLevel="2">
       <c r="A235" t="s" s="35">
         <v>286</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="236" hidden="true" outlineLevel="2">
+    <row r="236" hidden="false" outlineLevel="2">
       <c r="A236" t="s" s="35">
         <v>286</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="237" hidden="true" outlineLevel="2">
+    <row r="237" hidden="false" outlineLevel="2">
       <c r="A237" t="s" s="35">
         <v>286</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="238" hidden="true" outlineLevel="2">
+    <row r="238" hidden="false" outlineLevel="2">
       <c r="A238" t="s" s="35">
         <v>286</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="239" hidden="true" outlineLevel="1">
+    <row r="239" hidden="false" outlineLevel="1">
       <c r="A239" t="s" s="23">
         <v>42</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="240" hidden="true" outlineLevel="2">
+    <row r="240" hidden="false" outlineLevel="2">
       <c r="A240" t="s" s="35">
         <v>287</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="241" hidden="true" outlineLevel="2">
+    <row r="241" hidden="false" outlineLevel="2">
       <c r="A241" t="s" s="35">
         <v>287</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="242" hidden="true" outlineLevel="2">
+    <row r="242" hidden="false" outlineLevel="2">
       <c r="A242" t="s" s="35">
         <v>287</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="243" hidden="true" outlineLevel="2">
+    <row r="243" hidden="false" outlineLevel="2">
       <c r="A243" t="s" s="35">
         <v>287</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="244" hidden="true" outlineLevel="2">
+    <row r="244" hidden="false" outlineLevel="2">
       <c r="A244" t="s" s="35">
         <v>287</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="245" hidden="true" outlineLevel="1">
+    <row r="245" hidden="false" outlineLevel="1">
       <c r="A245" t="s" s="23">
         <v>49</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="246" hidden="true" outlineLevel="2">
+    <row r="246" hidden="false" outlineLevel="2">
       <c r="A246" t="s" s="35">
         <v>288</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="247" hidden="true" outlineLevel="2">
+    <row r="247" hidden="false" outlineLevel="2">
       <c r="A247" t="s" s="35">
         <v>288</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="248" hidden="true" outlineLevel="2">
+    <row r="248" hidden="false" outlineLevel="2">
       <c r="A248" t="s" s="35">
         <v>288</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="249" hidden="true" outlineLevel="2">
+    <row r="249" hidden="false" outlineLevel="2">
       <c r="A249" t="s" s="35">
         <v>288</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="250" hidden="true" outlineLevel="2">
+    <row r="250" hidden="false" outlineLevel="2">
       <c r="A250" t="s" s="35">
         <v>288</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="251" hidden="true" outlineLevel="1">
+    <row r="251" hidden="false" outlineLevel="1">
       <c r="A251" t="s" s="23">
         <v>56</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="252" hidden="true" outlineLevel="2">
+    <row r="252" hidden="false" outlineLevel="2">
       <c r="A252" t="s" s="35">
         <v>289</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="253" hidden="true" outlineLevel="2">
+    <row r="253" hidden="false" outlineLevel="2">
       <c r="A253" t="s" s="35">
         <v>289</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="254" hidden="true" outlineLevel="2">
+    <row r="254" hidden="false" outlineLevel="2">
       <c r="A254" t="s" s="35">
         <v>289</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="255" hidden="true" outlineLevel="2">
+    <row r="255" hidden="false" outlineLevel="2">
       <c r="A255" t="s" s="35">
         <v>289</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="256" hidden="true" outlineLevel="2">
+    <row r="256" hidden="false" outlineLevel="2">
       <c r="A256" t="s" s="35">
         <v>289</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="257" hidden="true" outlineLevel="1">
+    <row r="257" hidden="false" outlineLevel="1">
       <c r="A257" t="s" s="23">
         <v>63</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="258" hidden="true" outlineLevel="2">
+    <row r="258" hidden="false" outlineLevel="2">
       <c r="A258" t="s" s="35">
         <v>290</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="259" hidden="true" outlineLevel="2">
+    <row r="259" hidden="false" outlineLevel="2">
       <c r="A259" t="s" s="35">
         <v>290</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="260" hidden="true" outlineLevel="2">
+    <row r="260" hidden="false" outlineLevel="2">
       <c r="A260" t="s" s="35">
         <v>290</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="261" hidden="true" outlineLevel="2">
+    <row r="261" hidden="false" outlineLevel="2">
       <c r="A261" t="s" s="35">
         <v>290</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="262" hidden="true" outlineLevel="2">
+    <row r="262" hidden="false" outlineLevel="2">
       <c r="A262" t="s" s="35">
         <v>290</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="263" hidden="true" outlineLevel="1">
+    <row r="263" hidden="false" outlineLevel="1">
       <c r="A263" t="s" s="23">
         <v>70</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="264" hidden="true" outlineLevel="2">
+    <row r="264" hidden="false" outlineLevel="2">
       <c r="A264" t="s" s="35">
         <v>291</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="265" hidden="true" outlineLevel="2">
+    <row r="265" hidden="false" outlineLevel="2">
       <c r="A265" t="s" s="35">
         <v>291</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="266" hidden="true" outlineLevel="2">
+    <row r="266" hidden="false" outlineLevel="2">
       <c r="A266" t="s" s="35">
         <v>291</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="267" hidden="true" outlineLevel="2">
+    <row r="267" hidden="false" outlineLevel="2">
       <c r="A267" t="s" s="35">
         <v>291</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="268" hidden="true" outlineLevel="2">
+    <row r="268" hidden="false" outlineLevel="2">
       <c r="A268" t="s" s="35">
         <v>291</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="269" hidden="true" outlineLevel="1">
+    <row r="269" hidden="false" outlineLevel="1">
       <c r="A269" t="s" s="23">
         <v>77</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="270" hidden="true" outlineLevel="2">
+    <row r="270" hidden="false" outlineLevel="2">
       <c r="A270" t="s" s="35">
         <v>292</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="271" hidden="true" outlineLevel="2">
+    <row r="271" hidden="false" outlineLevel="2">
       <c r="A271" t="s" s="35">
         <v>292</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="272" hidden="true" outlineLevel="2">
+    <row r="272" hidden="false" outlineLevel="2">
       <c r="A272" t="s" s="35">
         <v>292</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="273" hidden="true" outlineLevel="2">
+    <row r="273" hidden="false" outlineLevel="2">
       <c r="A273" t="s" s="35">
         <v>292</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="274" hidden="true" outlineLevel="2">
+    <row r="274" hidden="false" outlineLevel="2">
       <c r="A274" t="s" s="35">
         <v>292</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="275" hidden="true" outlineLevel="1">
+    <row r="275" hidden="false" outlineLevel="1">
       <c r="A275" t="s" s="23">
         <v>84</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="276" hidden="true" outlineLevel="2">
+    <row r="276" hidden="false" outlineLevel="2">
       <c r="A276" t="s" s="35">
         <v>293</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="277" hidden="true" outlineLevel="2">
+    <row r="277" hidden="false" outlineLevel="2">
       <c r="A277" t="s" s="35">
         <v>293</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="278" hidden="true" outlineLevel="2">
+    <row r="278" hidden="false" outlineLevel="2">
       <c r="A278" t="s" s="35">
         <v>293</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="279" hidden="true" outlineLevel="2">
+    <row r="279" hidden="false" outlineLevel="2">
       <c r="A279" t="s" s="35">
         <v>293</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="280" hidden="true" outlineLevel="2">
+    <row r="280" hidden="false" outlineLevel="2">
       <c r="A280" t="s" s="35">
         <v>293</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="281" hidden="true" outlineLevel="1">
+    <row r="281" hidden="false" outlineLevel="1">
       <c r="A281" t="s" s="23">
         <v>89</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="282" hidden="true" outlineLevel="2">
+    <row r="282" hidden="false" outlineLevel="2">
       <c r="A282" t="s" s="35">
         <v>294</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="283" hidden="true" outlineLevel="2">
+    <row r="283" hidden="false" outlineLevel="2">
       <c r="A283" t="s" s="35">
         <v>294</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="284" hidden="true" outlineLevel="2">
+    <row r="284" hidden="false" outlineLevel="2">
       <c r="A284" t="s" s="35">
         <v>294</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="285" hidden="true" outlineLevel="2">
+    <row r="285" hidden="false" outlineLevel="2">
       <c r="A285" t="s" s="35">
         <v>294</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="286" hidden="true" outlineLevel="2">
+    <row r="286" hidden="false" outlineLevel="2">
       <c r="A286" t="s" s="35">
         <v>294</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="287" hidden="true" outlineLevel="1">
+    <row r="287" hidden="false" outlineLevel="1">
       <c r="A287" t="s" s="23">
         <v>96</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="288" hidden="true" outlineLevel="2">
+    <row r="288" hidden="false" outlineLevel="2">
       <c r="A288" t="s" s="35">
         <v>295</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="289" hidden="true" outlineLevel="2">
+    <row r="289" hidden="false" outlineLevel="2">
       <c r="A289" t="s" s="35">
         <v>295</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="290" hidden="true" outlineLevel="2">
+    <row r="290" hidden="false" outlineLevel="2">
       <c r="A290" t="s" s="35">
         <v>295</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="291" hidden="true" outlineLevel="2">
+    <row r="291" hidden="false" outlineLevel="2">
       <c r="A291" t="s" s="35">
         <v>295</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="292" hidden="true" outlineLevel="2">
+    <row r="292" hidden="false" outlineLevel="2">
       <c r="A292" t="s" s="35">
         <v>295</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="293" hidden="true" outlineLevel="1">
+    <row r="293" hidden="false" outlineLevel="1">
       <c r="A293" t="s" s="23">
         <v>103</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="294" hidden="true" outlineLevel="2">
+    <row r="294" hidden="false" outlineLevel="2">
       <c r="A294" t="s" s="35">
         <v>296</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="295" hidden="true" outlineLevel="2">
+    <row r="295" hidden="false" outlineLevel="2">
       <c r="A295" t="s" s="35">
         <v>296</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="296" hidden="true" outlineLevel="2">
+    <row r="296" hidden="false" outlineLevel="2">
       <c r="A296" t="s" s="35">
         <v>296</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="297" hidden="true" outlineLevel="2">
+    <row r="297" hidden="false" outlineLevel="2">
       <c r="A297" t="s" s="35">
         <v>296</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>46412.0</v>
       </c>
     </row>
-    <row r="298" hidden="true" outlineLevel="2">
+    <row r="298" hidden="false" outlineLevel="2">
       <c r="A298" t="s" s="35">
         <v>296</v>
       </c>
@@ -13512,7 +13512,7 @@
       <c r="P300" s="81"/>
       <c r="Q300" s="81"/>
     </row>
-    <row r="301" hidden="true" outlineLevel="1">
+    <row r="301" hidden="false" outlineLevel="1">
       <c r="A301" s="21"/>
       <c r="B301" s="5"/>
       <c r="C301" s="7"/>
@@ -13531,7 +13531,7 @@
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
     </row>
-    <row r="302" hidden="true" outlineLevel="1">
+    <row r="302" hidden="false" outlineLevel="1">
       <c r="A302" t="s" s="21">
         <v>298</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="303" hidden="true" outlineLevel="1">
+    <row r="303" hidden="false" outlineLevel="1">
       <c r="A303" t="s" s="23">
         <v>302</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>46132.0</v>
       </c>
     </row>
-    <row r="304" hidden="true" outlineLevel="1">
+    <row r="304" hidden="false" outlineLevel="1">
       <c r="A304" t="s" s="21">
         <v>303</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>46160.0</v>
       </c>
     </row>
-    <row r="305" hidden="true" outlineLevel="1">
+    <row r="305" hidden="false" outlineLevel="1">
       <c r="A305" t="s" s="23">
         <v>304</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>46188.0</v>
       </c>
     </row>
-    <row r="306" hidden="true" outlineLevel="1">
+    <row r="306" hidden="false" outlineLevel="1">
       <c r="A306" t="s" s="21">
         <v>305</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>46216.0</v>
       </c>
     </row>
-    <row r="307" hidden="true" outlineLevel="1">
+    <row r="307" hidden="false" outlineLevel="1">
       <c r="A307" t="s" s="23">
         <v>306</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>46244.0</v>
       </c>
     </row>
-    <row r="308" hidden="true" outlineLevel="1">
+    <row r="308" hidden="false" outlineLevel="1">
       <c r="A308" t="s" s="21">
         <v>307</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>46272.0</v>
       </c>
     </row>
-    <row r="309" hidden="true" outlineLevel="1">
+    <row r="309" hidden="false" outlineLevel="1">
       <c r="A309" t="s" s="23">
         <v>308</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>46300.0</v>
       </c>
     </row>
-    <row r="310" hidden="true" outlineLevel="1">
+    <row r="310" hidden="false" outlineLevel="1">
       <c r="A310" t="s" s="21">
         <v>309</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>46328.0</v>
       </c>
     </row>
-    <row r="311" hidden="true" outlineLevel="1">
+    <row r="311" hidden="false" outlineLevel="1">
       <c r="A311" t="s" s="23">
         <v>310</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>46356.0</v>
       </c>
     </row>
-    <row r="312" hidden="true" outlineLevel="1">
+    <row r="312" hidden="false" outlineLevel="1">
       <c r="A312" t="s" s="21">
         <v>311</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>46384.0</v>
       </c>
     </row>
-    <row r="313" hidden="true" outlineLevel="1">
+    <row r="313" hidden="false" outlineLevel="1">
       <c r="A313" t="s" s="23">
         <v>312</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="P315" s="81"/>
       <c r="Q315" s="81"/>
     </row>
-    <row r="316" hidden="true" outlineLevel="1">
+    <row r="316" hidden="false" outlineLevel="1">
       <c r="A316" s="21"/>
       <c r="B316" s="5"/>
       <c r="C316" s="7"/>
@@ -14106,7 +14106,7 @@
       <c r="P316" s="5"/>
       <c r="Q316" s="5"/>
     </row>
-    <row r="317" hidden="true" outlineLevel="1">
+    <row r="317" hidden="false" outlineLevel="1">
       <c r="A317" t="s" s="23">
         <v>19</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="318" hidden="true" outlineLevel="2">
+    <row r="318" hidden="false" outlineLevel="2">
       <c r="A318" t="s" s="35">
         <v>316</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="319" hidden="true" outlineLevel="2">
+    <row r="319" hidden="false" outlineLevel="2">
       <c r="A319" t="s" s="35">
         <v>316</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="320" hidden="true" outlineLevel="2">
+    <row r="320" hidden="false" outlineLevel="2">
       <c r="A320" t="s" s="35">
         <v>316</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="321" hidden="true" outlineLevel="2">
+    <row r="321" hidden="false" outlineLevel="2">
       <c r="A321" t="s" s="35">
         <v>316</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="322" hidden="true" outlineLevel="2">
+    <row r="322" hidden="false" outlineLevel="2">
       <c r="A322" t="s" s="35">
         <v>316</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>46055.0</v>
       </c>
     </row>
-    <row r="323" hidden="true" outlineLevel="2">
+    <row r="323" hidden="false" outlineLevel="2">
       <c r="A323" t="s" s="35">
         <v>316</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>422</v>
       </c>
       <c r="B96" t="n" s="86">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="97">
@@ -15229,7 +15229,7 @@
         <v>423</v>
       </c>
       <c r="B97" t="n" s="86">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="98">
